--- a/기획폴더/테이블 엑셀 문서/CharacterTable.xlsx
+++ b/기획폴더/테이블 엑셀 문서/CharacterTable.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <r>
       <rPr>
@@ -167,17 +167,74 @@
     <t>IconFile</t>
   </si>
   <si>
+    <t>캐릭터 아이콘 파일명</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>캐릭터 배경 설명</t>
+  </si>
+  <si>
     <t>Misuno_Tensi</t>
   </si>
   <si>
     <t>미즈노 텐시</t>
+  </si>
+  <si>
+    <t>Character_history_Misuno_tensi</t>
+  </si>
+  <si>
+    <t>John_holloway</t>
+  </si>
+  <si>
+    <t>존 할로웨이</t>
+  </si>
+  <si>
+    <t>Character_history_John_holloway</t>
+  </si>
+  <si>
+    <t>Mrs.J</t>
+  </si>
+  <si>
+    <t>미스 J</t>
+  </si>
+  <si>
+    <t>Character_history_Mrs.J</t>
+  </si>
+  <si>
+    <t>Park Chun-ja</t>
+  </si>
+  <si>
+    <t>박춘자</t>
+  </si>
+  <si>
+    <t>Character_history_Park Chun-ja</t>
+  </si>
+  <si>
+    <t>Oliver</t>
+  </si>
+  <si>
+    <t>올리버</t>
+  </si>
+  <si>
+    <t>Character_history_Oliver</t>
+  </si>
+  <si>
+    <t>Agatha</t>
+  </si>
+  <si>
+    <t>아가사</t>
+  </si>
+  <si>
+    <t>Character_history_Agatha</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -204,13 +261,24 @@
       <color rgb="FF000000"/>
       <name val="Malgun Gothic"/>
     </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDFDFD"/>
+        <bgColor rgb="FFFDFDFD"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -219,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -230,6 +298,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -551,11 +625,21 @@
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>17</v>
+      <c r="C11" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="12" ht="16.5" customHeight="1"/>
+    <row r="12" ht="16.5" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="13" ht="16.5" customHeight="1"/>
     <row r="14" ht="16.5" customHeight="1"/>
     <row r="15" ht="16.5" customHeight="1"/>
@@ -1564,9 +1648,12 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="8.71"/>
+    <col customWidth="1" min="1" max="1" width="8.71"/>
+    <col customWidth="1" min="2" max="2" width="14.0"/>
     <col customWidth="1" min="3" max="3" width="10.0"/>
-    <col customWidth="1" min="4" max="26" width="8.71"/>
+    <col customWidth="1" min="4" max="8" width="8.71"/>
+    <col customWidth="1" min="9" max="9" width="28.86"/>
+    <col customWidth="1" min="10" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1">
@@ -1594,6 +1681,9 @@
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="I1" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -1618,16 +1708,19 @@
       <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" ht="16.5" customHeight="1">
       <c r="A3" s="5">
         <v>1.0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D3" s="5">
         <v>2.0</v>
@@ -1637,12 +1730,21 @@
       </c>
       <c r="F3" s="5">
         <v>0.0</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1">
       <c r="A4" s="5">
         <v>2.0</v>
       </c>
+      <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="D4" s="5">
         <v>2.0</v>
       </c>
@@ -1651,12 +1753,21 @@
       </c>
       <c r="F4" s="5">
         <v>0.0</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" ht="16.5" customHeight="1">
       <c r="A5" s="5">
         <v>3.0</v>
       </c>
+      <c r="B5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="D5" s="5">
         <v>2.0</v>
       </c>
@@ -1665,12 +1776,21 @@
       </c>
       <c r="F5" s="5">
         <v>0.0</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" ht="16.5" customHeight="1">
       <c r="A6" s="5">
         <v>4.0</v>
       </c>
+      <c r="B6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="D6" s="5">
         <v>2.0</v>
       </c>
@@ -1679,12 +1799,21 @@
       </c>
       <c r="F6" s="5">
         <v>0.0</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" ht="16.5" customHeight="1">
       <c r="A7" s="5">
         <v>5.0</v>
       </c>
+      <c r="B7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="D7" s="5">
         <v>2.0</v>
       </c>
@@ -1693,12 +1822,21 @@
       </c>
       <c r="F7" s="5">
         <v>0.0</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="5">
         <v>6.0</v>
       </c>
+      <c r="B8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="D8" s="5">
         <v>2.0</v>
       </c>
@@ -1708,35 +1846,12 @@
       <c r="F8" s="5">
         <v>0.0</v>
       </c>
+      <c r="I8" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c r="A9" s="5">
-        <v>7.0</v>
-      </c>
-      <c r="D9" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E9" s="5">
-        <v>160.0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c r="A10" s="5">
-        <v>8.0</v>
-      </c>
-      <c r="D10" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E10" s="5">
-        <v>160.0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
+    <row r="9" ht="16.5" customHeight="1"/>
+    <row r="10" ht="16.5" customHeight="1"/>
     <row r="11" ht="16.5" customHeight="1"/>
     <row r="12" ht="16.5" customHeight="1"/>
     <row r="13" ht="16.5" customHeight="1"/>
